--- a/Jagung/Jagung.xlsx
+++ b/Jagung/Jagung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\Jagung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A134A0DB-ABD8-40DF-ADC5-B71189D7D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F22150-7FC3-4B93-A343-9D1B5412FE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Luas Panen" sheetId="1" r:id="rId1"/>
@@ -338,6 +338,198 @@
   <dxfs count="24">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -541,6 +733,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
@@ -548,15 +749,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
@@ -595,198 +787,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1096,7 +1096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DF0EE80-F317-45BD-87C5-B1E9B2687BC5}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DF0EE80-F317-45BD-87C5-B1E9B2687BC5}" name="LuasPanen_Jagung" displayName="LuasPanen_Jagung" ref="A1:D35" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:D35" xr:uid="{7DF0EE80-F317-45BD-87C5-B1E9B2687BC5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BA5EAD44-F42D-4A86-8144-49A710793D54}" name="Lokasi" dataDxfId="19"/>
@@ -1109,26 +1109,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91E334F8-7FF1-4C3E-B455-8BBFA60FA970}" name="Table2" displayName="Table2" ref="A1:D35" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91E334F8-7FF1-4C3E-B455-8BBFA60FA970}" name="Produksi_Jagung" displayName="Produksi_Jagung" ref="A1:D35" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D35" xr:uid="{91E334F8-7FF1-4C3E-B455-8BBFA60FA970}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DD87667B-1936-40CE-8B4C-747B7512D439}" name="Lokasi" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{30D8CB3E-4503-49AA-94A5-29B1E1C23CE5}" name="2015" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{897DDC8E-8BE7-4B0E-8B1C-6C951AD3BAAE}" name="2016" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{089E0429-4252-4585-9B55-A9C35AA6E022}" name="2017" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DD87667B-1936-40CE-8B4C-747B7512D439}" name="Lokasi" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{30D8CB3E-4503-49AA-94A5-29B1E1C23CE5}" name="2015" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{897DDC8E-8BE7-4B0E-8B1C-6C951AD3BAAE}" name="2016" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{089E0429-4252-4585-9B55-A9C35AA6E022}" name="2017" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{077011EC-D4E2-4743-B026-09C1861547E6}" name="Table3" displayName="Table3" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{077011EC-D4E2-4743-B026-09C1861547E6}" name="Produktivitas_Jagung" displayName="Produktivitas_Jagung" ref="A1:D35" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D35" xr:uid="{077011EC-D4E2-4743-B026-09C1861547E6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D976123-1E2B-4004-80DA-B574F3B21451}" name="Lokasi" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{907F5B44-5700-414E-9051-1AC4D3439DD4}" name="2015" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5AF53487-7F63-4E86-A5F9-F4104A0FC888}" name="2016" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9EC78DE2-657E-4A5F-990F-04471D6A698F}" name="2017" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1D976123-1E2B-4004-80DA-B574F3B21451}" name="Lokasi" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{907F5B44-5700-414E-9051-1AC4D3439DD4}" name="2015" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5AF53487-7F63-4E86-A5F9-F4104A0FC888}" name="2016" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9EC78DE2-657E-4A5F-990F-04471D6A698F}" name="2017" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4256,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:D1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EC7D9B-9D44-4BF3-9281-E1F808296165}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
